--- a/medicine/Mort/Cimetière_de_Borre/Cimetière_de_Borre.xlsx
+++ b/medicine/Mort/Cimetière_de_Borre/Cimetière_de_Borre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borre</t>
+          <t>Cimetière_de_Borre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site de Borrehaugene, ou tumulus de Borre, (norvégien : Borrehaugene du vieux norrois borró et haugr qui signifie butte, ou tumulus) se situe dans le parc national de Borre à Horten, comté de Vestfold, en Norvège[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de Borrehaugene, ou tumulus de Borre, (norvégien : Borrehaugene du vieux norrois borró et haugr qui signifie butte, ou tumulus) se situe dans le parc national de Borre à Horten, comté de Vestfold, en Norvège.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borre</t>
+          <t>Cimetière_de_Borre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc couvre 18,2 hectares (182 000 m2) et sa collection de tumulus est la plus importante de toute la Scandinavie. Il abrite sept grands tumulus et un cairn. Au moins deux tumulus et un cairn furent détruits au fil du temps. La présence de 25 cairns plus petits indique que le cimetière put être plus grand. Certains de ces édifices ont plus de 45 mètres de diamètre et atteignent jusqu'à 6 mètres de haut. Le site de Borrehaugene est d'une importance historique, puisqu'il tend à prouver l'existence d'un centre de pouvoir à l'Âge Viking pendant la Période mérovingienne.
 Les premières études sur le cimetière ont été faites entre les années 1851 et 1852. Des constructeurs de routes modernes ont utilisé l'un des tumulus comme d'une fosse à gravier et ont donc détruit une grande partie d'une tombe richement décorée. Ce fut Nicolay Nicolaysen, antiquaire, qui étudia et examina ce qui restait du tumulus. La tombe contenait des armes, ainsi qu'un équipement d'équitation, ce qui suggère qu'il s'agissait de la tombe d'un homme. Les fouilles ont découvert un large éventail de l'artisanat viking, qui est pour l'essentiel exposé au musée du Bateau Viking à Oslo. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borre</t>
+          <t>Cimetière_de_Borre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Port et bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2007, les mesures du Radar à pénétration de sol [GPR] effectuées par l'unité archéologique du Centre National du Patrimoine Norvégien pour le comté de Vestfold, ont conduit à la découverte de restes enterrés de deux salles pré-historiques. Ce fut le premier bâtiment substantiel découvert dans les environs de Borre[2],[3].
-En mars 2013, une mesure à grande échelle du GPR conduit par Institut Ludwig Boltzmann de la Recherche Archéologique et de l'Archéologie Virtuelle (LBI ArchPro), en collaboration avec le comté Vestfold et l'Institut pour la Recherche de l'Héritage Culturel Norvégien (NIKU), ont mené à la découverte d'une autre grande salle[4],[5].
-En 2015, Erich Draganits suggéra, d'après les analyses des caractéristiques géo-morphologiques, que Borre pourrait bien avoir été un port préhistorique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2007, les mesures du Radar à pénétration de sol [GPR] effectuées par l'unité archéologique du Centre National du Patrimoine Norvégien pour le comté de Vestfold, ont conduit à la découverte de restes enterrés de deux salles pré-historiques. Ce fut le premier bâtiment substantiel découvert dans les environs de Borre,.
+En mars 2013, une mesure à grande échelle du GPR conduit par Institut Ludwig Boltzmann de la Recherche Archéologique et de l'Archéologie Virtuelle (LBI ArchPro), en collaboration avec le comté Vestfold et l'Institut pour la Recherche de l'Héritage Culturel Norvégien (NIKU), ont mené à la découverte d'une autre grande salle,.
+En 2015, Erich Draganits suggéra, d'après les analyses des caractéristiques géo-morphologiques, que Borre pourrait bien avoir été un port préhistorique.
 </t>
         </is>
       </c>
